--- a/Outputs/Table 1 B.xlsx
+++ b/Outputs/Table 1 B.xlsx
@@ -112,19 +112,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5.891120438017582E8</v>
+        <v>2.4917185495952606E8</v>
       </c>
       <c r="C2" t="n">
-        <v>6.484619771586738E8</v>
+        <v>3.2202370027230215E8</v>
       </c>
       <c r="D2" t="n">
-        <v>7.078119105155907E8</v>
+        <v>3.9487554558508E8</v>
       </c>
       <c r="E2" t="n">
-        <v>7.671618438725065E8</v>
+        <v>4.677273908978569E8</v>
       </c>
       <c r="F2" t="n">
-        <v>8.26511777229424E8</v>
+        <v>5.405792362106316E8</v>
       </c>
     </row>
     <row r="3">
@@ -132,19 +132,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>9.198373985260268E8</v>
+        <v>6.441650768081288E8</v>
       </c>
       <c r="C3" t="n">
-        <v>9.791873318829424E8</v>
+        <v>7.170169221209049E8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0385372652398592E9</v>
+        <v>7.898687674336827E8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.097887198596775E9</v>
+        <v>8.627206127464597E8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1572371319536927E9</v>
+        <v>9.355724580592343E8</v>
       </c>
     </row>
     <row r="4">
@@ -152,19 +152,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1.581504256318069E9</v>
+        <v>1.4345046839378834E9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6408541896749845E9</v>
+        <v>1.5073565292506595E9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.7002041230319014E9</v>
+        <v>1.5802083745634375E9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.759554056388817E9</v>
+        <v>1.653060219876214E9</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8189039897457347E9</v>
+        <v>1.7259120651889887E9</v>
       </c>
     </row>
     <row r="5">
@@ -172,19 +172,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.3758850509125595E9</v>
+        <v>2.3835341001871724E9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.435234984269475E9</v>
+        <v>2.4563859454999485E9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.494584917626392E9</v>
+        <v>2.5292377908127265E9</v>
       </c>
       <c r="E5" t="n">
-        <v>2.553934850983308E9</v>
+        <v>2.6020896361255035E9</v>
       </c>
       <c r="F5" t="n">
-        <v>2.613284784340225E9</v>
+        <v>2.674941481438278E9</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 1 B.xlsx
+++ b/Outputs/Table 1 B.xlsx
@@ -112,19 +112,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.4967200863041246E8</v>
+        <v>3.351289929759778E8</v>
       </c>
       <c r="C2" t="n">
-        <v>3.225272577826562E8</v>
+        <v>4.130309722377607E8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.9538250693490005E8</v>
+        <v>4.9093295149954426E8</v>
       </c>
       <c r="E2" t="n">
-        <v>4.6823775608714503E8</v>
+        <v>5.688349307613283E8</v>
       </c>
       <c r="F2" t="n">
-        <v>5.4109300523939E8</v>
+        <v>6.467369100231119E8</v>
       </c>
     </row>
     <row r="3">
@@ -132,19 +132,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>6.451722000885704E8</v>
+        <v>7.306291844341357E8</v>
       </c>
       <c r="C3" t="n">
-        <v>7.180274492408142E8</v>
+        <v>8.085311636959186E8</v>
       </c>
       <c r="D3" t="n">
-        <v>7.908826983930581E8</v>
+        <v>8.864331429577022E8</v>
       </c>
       <c r="E3" t="n">
-        <v>8.637379475453031E8</v>
+        <v>9.643351222194864E8</v>
       </c>
       <c r="F3" t="n">
-        <v>9.365931966975479E8</v>
+        <v>1.04223710148127E9</v>
       </c>
     </row>
     <row r="4">
@@ -152,19 +152,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1.4365257711338031E9</v>
+        <v>1.5219827554793682E9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5093810202860467E9</v>
+        <v>1.5998847347411513E9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5822362694382906E9</v>
+        <v>1.677786714002935E9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.6550915185905356E9</v>
+        <v>1.755688693264719E9</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7279467677427807E9</v>
+        <v>1.8335906725265028E9</v>
       </c>
     </row>
     <row r="5">
@@ -172,19 +172,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.3867719873503237E9</v>
+        <v>2.472228971695889E9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4596272365025673E9</v>
+        <v>2.550130950957672E9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5324824856548114E9</v>
+        <v>2.6280329302194557E9</v>
       </c>
       <c r="E5" t="n">
-        <v>2.6053377348070564E9</v>
+        <v>2.70593490948124E9</v>
       </c>
       <c r="F5" t="n">
-        <v>2.6781929839593015E9</v>
+        <v>2.7838368887430234E9</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 1 B.xlsx
+++ b/Outputs/Table 1 B.xlsx
@@ -112,19 +112,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.351289929759778E8</v>
+        <v>3.421228299218353E8</v>
       </c>
       <c r="C2" t="n">
-        <v>4.130309722377607E8</v>
+        <v>4.093927758840755E8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.9093295149954426E8</v>
+        <v>4.766627218463165E8</v>
       </c>
       <c r="E2" t="n">
-        <v>5.688349307613283E8</v>
+        <v>5.439326678085577E8</v>
       </c>
       <c r="F2" t="n">
-        <v>6.467369100231119E8</v>
+        <v>6.112026137707986E8</v>
       </c>
     </row>
     <row r="3">
@@ -132,19 +132,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7.306291844341357E8</v>
+        <v>7.376230213799932E8</v>
       </c>
       <c r="C3" t="n">
-        <v>8.085311636959186E8</v>
+        <v>8.048929673422335E8</v>
       </c>
       <c r="D3" t="n">
-        <v>8.864331429577022E8</v>
+        <v>8.721629133044745E8</v>
       </c>
       <c r="E3" t="n">
-        <v>9.643351222194864E8</v>
+        <v>9.394328592667156E8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.04223710148127E9</v>
+        <v>1.0067028052289566E9</v>
       </c>
     </row>
     <row r="4">
@@ -152,19 +152,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5219827554793682E9</v>
+        <v>1.528976592425226E9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5998847347411513E9</v>
+        <v>1.5962465383874662E9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.677786714002935E9</v>
+        <v>1.6635164843497071E9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.755688693264719E9</v>
+        <v>1.7307864303119483E9</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8335906725265028E9</v>
+        <v>1.7980563762741892E9</v>
       </c>
     </row>
     <row r="5">
@@ -172,19 +172,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.472228971695889E9</v>
+        <v>2.479222808641747E9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.550130950957672E9</v>
+        <v>2.546492754603987E9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6280329302194557E9</v>
+        <v>2.613762700566228E9</v>
       </c>
       <c r="E5" t="n">
-        <v>2.70593490948124E9</v>
+        <v>2.681032646528469E9</v>
       </c>
       <c r="F5" t="n">
-        <v>2.7838368887430234E9</v>
+        <v>2.74830259249071E9</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 1 B.xlsx
+++ b/Outputs/Table 1 B.xlsx
@@ -112,19 +112,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.421228299218353E8</v>
+        <v>3.3970998153414017E8</v>
       </c>
       <c r="C2" t="n">
-        <v>4.093927758840755E8</v>
+        <v>4.046223588813218E8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.766627218463165E8</v>
+        <v>4.69534736228504E8</v>
       </c>
       <c r="E2" t="n">
-        <v>5.439326678085577E8</v>
+        <v>5.344471135756865E8</v>
       </c>
       <c r="F2" t="n">
-        <v>6.112026137707986E8</v>
+        <v>5.993594909228686E8</v>
       </c>
     </row>
     <row r="3">
@@ -132,19 +132,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7.376230213799932E8</v>
+        <v>7.309294783785502E8</v>
       </c>
       <c r="C3" t="n">
-        <v>8.048929673422335E8</v>
+        <v>7.95841855725732E8</v>
       </c>
       <c r="D3" t="n">
-        <v>8.721629133044745E8</v>
+        <v>8.60754233072914E8</v>
       </c>
       <c r="E3" t="n">
-        <v>9.394328592667156E8</v>
+        <v>9.256666104200965E8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0067028052289566E9</v>
+        <v>9.905789877672788E8</v>
       </c>
     </row>
     <row r="4">
@@ -152,19 +152,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1.528976592425226E9</v>
+        <v>1.5137177978885026E9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5962465383874662E9</v>
+        <v>1.5786301752356844E9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6635164843497071E9</v>
+        <v>1.6435425525828667E9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.7307864303119483E9</v>
+        <v>1.708454929930049E9</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7980563762741892E9</v>
+        <v>1.7733673072772312E9</v>
       </c>
     </row>
     <row r="5">
@@ -172,19 +172,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.479222808641747E9</v>
+        <v>2.453678911083649E9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.546492754603987E9</v>
+        <v>2.518591288430831E9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.613762700566228E9</v>
+        <v>2.583503665778013E9</v>
       </c>
       <c r="E5" t="n">
-        <v>2.681032646528469E9</v>
+        <v>2.6484160431251955E9</v>
       </c>
       <c r="F5" t="n">
-        <v>2.74830259249071E9</v>
+        <v>2.713328420472378E9</v>
       </c>
     </row>
   </sheetData>
